--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Management Programming" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Personal Project</t>
   </si>
@@ -108,13 +108,39 @@
     <t>AI</t>
   </si>
   <si>
-    <t>0/32</t>
-  </si>
-  <si>
     <t>Tiến độ</t>
   </si>
   <si>
     <t>Quản lí tài sản thiết bị khách sạn</t>
+  </si>
+  <si>
+    <t>5//32</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Management 
+Programming</t>
+  </si>
+  <si>
+    <t>CSS,JS</t>
+  </si>
+  <si>
+    <t>Cloud
+Computing</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Soạn Tài liệu đồ án cá nhân</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -177,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -566,7 +593,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -578,8 +605,8 @@
       <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" t="s">
-        <v>26</v>
+      <c r="P3" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -623,65 +650,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="6"/>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
